--- a/docs/StructureDefinition-CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-ProcedureRequest-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="544">
   <si>
     <t>Path</t>
   </si>
@@ -1057,6 +1057,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -7558,7 +7561,7 @@
         <v>336</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7591,24 +7594,24 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7720,7 +7723,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7834,7 +7837,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7948,7 +7951,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>277</v>
@@ -8066,7 +8069,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8178,7 +8181,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8290,7 +8293,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>282</v>
@@ -8404,7 +8407,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8520,7 +8523,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8634,7 +8637,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8748,7 +8751,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8862,7 +8865,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8978,7 +8981,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9094,7 +9097,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9117,13 +9120,13 @@
         <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9174,7 +9177,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>53</v>
@@ -9189,28 +9192,28 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9229,13 +9232,13 @@
         <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9286,7 +9289,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9301,28 +9304,28 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9341,13 +9344,13 @@
         <v>54</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9398,7 +9401,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9413,24 +9416,24 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9453,13 +9456,13 @@
         <v>54</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9489,10 +9492,10 @@
         <v>261</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9510,7 +9513,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9531,22 +9534,22 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9565,13 +9568,13 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9622,7 +9625,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9637,28 +9640,28 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9677,16 +9680,16 @@
         <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9736,7 +9739,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9748,27 +9751,27 @@
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9880,7 +9883,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9994,11 +9997,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10023,7 +10026,7 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>102</v>
@@ -10076,7 +10079,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10108,7 +10111,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10131,13 +10134,13 @@
         <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10188,7 +10191,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>53</v>
@@ -10203,24 +10206,24 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10246,14 +10249,14 @@
         <v>174</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10302,7 +10305,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10317,13 +10320,13 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10360,13 +10363,13 @@
         <v>141</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10395,10 +10398,10 @@
         <v>261</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10416,7 +10419,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10431,16 +10434,16 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10448,7 +10451,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10471,16 +10474,16 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10530,31 +10533,31 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10562,7 +10565,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10588,13 +10591,13 @@
         <v>141</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10623,10 +10626,10 @@
         <v>261</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>44</v>
@@ -10644,7 +10647,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10659,16 +10662,16 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10676,7 +10679,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10788,7 +10791,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10902,7 +10905,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11016,7 +11019,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>277</v>
@@ -11134,7 +11137,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11246,7 +11249,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11358,7 +11361,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>282</v>
@@ -11472,7 +11475,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11588,7 +11591,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11702,7 +11705,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11816,7 +11819,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11930,7 +11933,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12046,7 +12049,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12162,7 +12165,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12185,16 +12188,16 @@
         <v>54</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12244,7 +12247,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12259,16 +12262,16 @@
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12276,11 +12279,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12299,13 +12302,13 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12356,7 +12359,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12371,13 +12374,13 @@
         <v>44</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
@@ -12388,7 +12391,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12411,16 +12414,16 @@
         <v>54</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12470,7 +12473,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12488,10 +12491,10 @@
         <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
@@ -12502,11 +12505,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12528,16 +12531,16 @@
         <v>141</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12565,10 +12568,10 @@
         <v>261</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>44</v>
@@ -12586,7 +12589,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12604,21 +12607,21 @@
         <v>44</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12730,7 +12733,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12844,7 +12847,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12958,7 +12961,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>277</v>
@@ -13020,13 +13023,13 @@
         <v>44</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>44</v>
@@ -13076,7 +13079,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13188,7 +13191,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13300,7 +13303,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>282</v>
@@ -13414,7 +13417,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13530,7 +13533,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13644,7 +13647,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13758,7 +13761,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13872,7 +13875,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13988,7 +13991,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14104,7 +14107,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14127,13 +14130,13 @@
         <v>44</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14184,7 +14187,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14199,24 +14202,24 @@
         <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14328,7 +14331,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14442,7 +14445,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14465,13 +14468,13 @@
         <v>54</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14522,7 +14525,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14543,7 +14546,7 @@
         <v>96</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>44</v>
@@ -14554,7 +14557,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14577,13 +14580,13 @@
         <v>54</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14634,7 +14637,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14655,7 +14658,7 @@
         <v>96</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>44</v>
@@ -14666,7 +14669,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14692,10 +14695,10 @@
         <v>119</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14746,7 +14749,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>53</v>
@@ -14767,7 +14770,7 @@
         <v>96</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>44</v>
@@ -14778,7 +14781,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14801,16 +14804,16 @@
         <v>44</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14860,7 +14863,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -14875,13 +14878,13 @@
         <v>44</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>44</v>
